--- a/Jogos_do_Dia/2023-05-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +617,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Netherlands Eredivisie</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -625,114 +625,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.07</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>6.45</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>1.52</v>
+        <v>1.11</v>
       </c>
       <c r="M2" t="n">
-        <v>2.53</v>
+        <v>6.28</v>
       </c>
       <c r="N2" t="n">
-        <v>2.39</v>
+        <v>1.44</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>2.72</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.36</v>
+        <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>2.21</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="X2" t="n">
-        <v>1.21</v>
+        <v>2.07</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="Z2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1.14</v>
       </c>
-      <c r="AA2" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -744,110 +744,110 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.28</v>
+        <v>4.33</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.22</v>
+        <v>1.83</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>6.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>4.23</v>
+        <v>2.4</v>
       </c>
       <c r="N3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T3" t="n">
         <v>1.9</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.3</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="X3" t="n">
-        <v>0.87</v>
+        <v>1.21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.96</v>
+        <v>2.21</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.25</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.25</v>
+        <v>1.69</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Norway First Division</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -855,30 +855,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Åsane</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -887,16 +887,16 @@
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
-        <v>3.75</v>
+        <v>4.23</v>
       </c>
       <c r="N4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O4" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
@@ -911,52 +911,52 @@
         <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U4" t="n">
         <v>1.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AG4" t="n">
         <v>1.75</v>
       </c>
-      <c r="X4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="5">
@@ -970,7 +970,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -978,22 +978,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sandnes Ulf</t>
+          <t>Åsane</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.04</v>
@@ -1002,16 +1002,16 @@
         <v>10</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1020,43 +1020,43 @@
         <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>1.28</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Norway First Division</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1085,84 +1085,84 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>CS Sfaxien</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hødd</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>6.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="M6" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.69</v>
+        <v>2.34</v>
       </c>
       <c r="O6" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="T6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="U6" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1208,76 +1208,76 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>KFUM</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.62</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="O7" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="P7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.3</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1323,28 +1323,28 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>1.2</v>
@@ -1353,10 +1353,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1371,28 +1371,28 @@
         <v>2.25</v>
       </c>
       <c r="T8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.25</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="W8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.41</v>
+        <v>1.76</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1438,28 +1438,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
@@ -1468,10 +1468,10 @@
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P9" t="n">
         <v>1.3</v>
@@ -1486,28 +1486,28 @@
         <v>2.25</v>
       </c>
       <c r="T9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1.3</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.31</v>
-      </c>
       <c r="AA9" t="n">
-        <v>3.07</v>
+        <v>2.71</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1553,76 +1553,76 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Mjøndalen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>KFUM</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.04</v>
       </c>
-      <c r="K10" t="n">
-        <v>10</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.33</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Norway First Division</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1664,32 +1664,32 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Hødd</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1698,10 +1698,10 @@
         <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="O11" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="P11" t="n">
         <v>1.33</v>
@@ -1710,34 +1710,34 @@
         <v>3.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X11" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.86</v>
+        <v>1.15</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.44</v>
+        <v>2.55</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Norway First Division</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -1779,44 +1779,44 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Vålerenga</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O12" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1825,64 +1825,64 @@
         <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="U12" t="n">
         <v>1.25</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Norway First Division</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1894,104 +1894,104 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mjøndalen</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.19</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>2.73</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.35</v>
       </c>
       <c r="U13" t="n">
         <v>1.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.53</v>
+        <v>0.98</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="14">
@@ -2013,22 +2013,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>1.05</v>
@@ -2046,7 +2046,7 @@
         <v>1.7</v>
       </c>
       <c r="O14" t="n">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2055,64 +2055,64 @@
         <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
         <v>2</v>
       </c>
-      <c r="W14" t="n">
-        <v>2.33</v>
-      </c>
       <c r="X14" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.97</v>
+        <v>1.58</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.98</v>
+        <v>1.86</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.95</v>
+        <v>3.44</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2124,110 +2124,110 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Stabæk</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.66</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.28</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.09</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.05</v>
       </c>
-      <c r="K15" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="U15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="X15" t="n">
-        <v>2.15</v>
-      </c>
       <c r="Y15" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.79</v>
+        <v>3.21</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.46</v>
+        <v>1.11</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.699999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.74</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.28</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Norway First Division</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,80 +2239,80 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.58</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="U16" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
         <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.07</v>
+        <v>1.64</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2358,40 +2358,40 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stabæk</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="H17" t="n">
-        <v>4.26</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>7.14</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="O17" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2400,58 +2400,58 @@
         <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="U17" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="V17" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.21</v>
+        <v>2.27</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="18">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FK Bodo - Glimt</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.85</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2503,10 +2503,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O18" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="P18" t="n">
         <v>1.33</v>
@@ -2515,58 +2515,58 @@
         <v>3.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AF18" t="n">
         <v>1.22</v>
       </c>
-      <c r="W18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="19">
@@ -2588,22 +2588,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>FK Bodo - Glimt</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.92</v>
+        <v>4.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>1.72</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2618,10 +2618,10 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2630,64 +2630,64 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.25</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.54</v>
+        <v>1.09</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.83</v>
+        <v>1.99</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.37</v>
+        <v>3.08</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2699,110 +2699,110 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>3.75</v>
+        <v>2.64</v>
       </c>
       <c r="N20" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O20" t="n">
-        <v>2.03</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="T20" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="X20" t="n">
         <v>2.15</v>
       </c>
-      <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.33</v>
-      </c>
       <c r="Y20" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.96</v>
+        <v>1.36</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.27</v>
+        <v>2.79</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2818,106 +2818,106 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Vålerenga</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="H21" t="n">
-        <v>3.11</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.11</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P21" t="n">
         <v>1.33</v>
       </c>
-      <c r="M21" t="n">
+      <c r="Q21" t="n">
         <v>3.25</v>
       </c>
-      <c r="N21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.75</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="U21" t="n">
         <v>1.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AH21" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.65</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2925,108 +2925,108 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.75</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="O22" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="P22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="V22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AB22" t="n">
         <v>4</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>4.32</v>
-      </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="23">
@@ -3048,106 +3048,106 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.54</v>
+        <v>6.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.62</v>
+        <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>1.36</v>
       </c>
       <c r="J23" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.2</v>
       </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X23" t="n">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.54</v>
+        <v>2.24</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.99</v>
+        <v>3.43</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.83</v>
+        <v>4.32</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3155,114 +3155,114 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>2.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.48</v>
+        <v>2.63</v>
       </c>
       <c r="J24" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
-        <v>2.28</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.67</v>
+        <v>1.62</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>2.15</v>
       </c>
       <c r="P24" t="n">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>3.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="U24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AE24" t="n">
         <v>1.33</v>
       </c>
-      <c r="V24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
       <c r="AF24" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3270,114 +3270,114 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K25" t="n">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="N25" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T25" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.33</v>
       </c>
-      <c r="V25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X25" t="n">
-        <v>1.53</v>
+        <v>0.33</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.74</v>
+        <v>1.46</v>
       </c>
       <c r="Z25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF25" t="n">
         <v>1.34</v>
       </c>
-      <c r="AA25" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Europe UEFA Champions League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
@@ -3385,114 +3385,114 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.66</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>4.24</v>
+        <v>3.4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="K26" t="n">
-        <v>9.4</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R26" t="n">
         <v>2.2</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S26" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="V26" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.01</v>
+        <v>2.49</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.76</v>
+        <v>1.66</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.4</v>
+        <v>2.59</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AG26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH26" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -3500,114 +3500,114 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6</v>
+        <v>1.53</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Europe UEFA Champions League</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3615,114 +3615,114 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W28" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="X28" t="n">
-        <v>0.75</v>
+        <v>1.64</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.83</v>
+        <v>3.01</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -3730,84 +3730,84 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Academia Cantolao</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.94</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K29" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="M29" t="n">
-        <v>3.65</v>
+        <v>2.83</v>
       </c>
       <c r="N29" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.6</v>
       </c>
-      <c r="S29" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
       <c r="X29" t="n">
-        <v>0.17</v>
+        <v>0.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.76</v>
+        <v>1.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.16</v>
+        <v>2.95</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3845,84 +3845,84 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Atlético Huila</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="W30" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.47</v>
+        <v>2.83</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -3960,84 +3960,84 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Guaireña</t>
+          <t>Academia Cantolao</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.7</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
-        <v>4.42</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.44</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
       <c r="W31" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>0.17</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.68</v>
+        <v>0.76</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.76</v>
+        <v>2.16</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chile Primera B</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4079,16 +4079,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Deportes Santa Cruz</t>
+          <t>Boyacá Chicó</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.6</v>
+        <v>1.56</v>
       </c>
       <c r="X32" t="n">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.43</v>
+        <v>0.98</v>
       </c>
       <c r="AA32" t="n">
-        <v>3.23</v>
+        <v>2.72</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4194,26 +4194,26 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Independiente Medellín</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Unión Magdalena</t>
+          <t>América</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -4228,22 +4228,22 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -4255,19 +4255,19 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X33" t="n">
-        <v>0.44</v>
+        <v>2.05</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.89</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.53</v>
+        <v>3.69</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Mexico Liga MX</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4309,26 +4309,26 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Atlético Nacional</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -4343,22 +4343,22 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -4370,19 +4370,19 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="X34" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.9</v>
+        <v>2.11</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -4412,7 +4412,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -4424,26 +4424,26 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Guaireña</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -4485,19 +4485,19 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.11</v>
+        <v>0.63</v>
       </c>
       <c r="X35" t="n">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.59</v>
+        <v>1.08</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -4543,12 +4543,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Atlético Huila</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Alianza Petrolera</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -4600,19 +4600,19 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X36" t="n">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -4658,12 +4658,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Boyacá Chicó</t>
+          <t>Alianza Petrolera</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -4715,19 +4715,19 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="X37" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.98</v>
+        <v>1.31</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -4773,12 +4773,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -4830,19 +4830,19 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.56</v>
+        <v>1.11</v>
       </c>
       <c r="X38" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.83</v>
+        <v>3.1</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -4888,12 +4888,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Atlético Bucaramanga</t>
+          <t>Rionegro Águilas</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>América de Cali</t>
+          <t>Jaguares de Córdoba</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -4945,19 +4945,19 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.11</v>
+        <v>2.56</v>
       </c>
       <c r="X39" t="n">
-        <v>1.22</v>
+        <v>0.33</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -5003,12 +5003,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Rionegro Águilas</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jaguares de Córdoba</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -5063,16 +5063,16 @@
         <v>2.56</v>
       </c>
       <c r="X40" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Z40" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -5118,12 +5118,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Independiente Medellín</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Unión Magdalena</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -5178,39 +5178,959 @@
         <v>1.67</v>
       </c>
       <c r="X41" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X42" t="n">
         <v>0.78</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Y42" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="Z42" t="n">
         <v>1.45</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AA42" t="n">
         <v>2.95</v>
       </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>12</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K44" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>12</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>18</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>12</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Unión San Felipe</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-05-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="J2" t="n">
         <v>1.01</v>
@@ -690,10 +690,10 @@
         <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X2" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="Y2" t="n">
         <v>1.47</v>
@@ -732,7 +732,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -744,110 +744,110 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.83</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.4</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="P3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB3" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2.52</v>
-      </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>6.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.69</v>
+        <v>3.25</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -859,104 +859,104 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>6.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>4.23</v>
+        <v>2.45</v>
       </c>
       <c r="N4" t="n">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="P4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.3</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.85</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>0.77</v>
       </c>
       <c r="X4" t="n">
-        <v>0.87</v>
+        <v>1.33</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.96</v>
+        <v>2.21</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.55</v>
+        <v>2.52</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.25</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.25</v>
+        <v>1.69</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>3.2</v>
@@ -1008,10 +1008,10 @@
         <v>3.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1035,10 +1035,10 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y5" t="n">
         <v>1.87</v>
@@ -1059,10 +1059,10 @@
         <v>2.45</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AG5" t="n">
         <v>1.53</v>
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="J6" t="n">
         <v>1.07</v>
@@ -1117,16 +1117,16 @@
         <v>6.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N6" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.55</v>
@@ -1135,10 +1135,10 @@
         <v>2.36</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="S6" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>1.32</v>
@@ -1208,22 +1208,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>KFUM</t>
+          <t>Hødd</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1241,7 +1241,7 @@
         <v>1.67</v>
       </c>
       <c r="O7" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="P7" t="n">
         <v>1.33</v>
@@ -1250,58 +1250,58 @@
         <v>3.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X7" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="8">
@@ -1323,61 +1323,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Bryne</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.25</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
         <v>2</v>
@@ -1386,37 +1386,37 @@
         <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.07</v>
+        <v>2.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="9">
@@ -1438,52 +1438,52 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>KFUM</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.25</v>
@@ -1492,46 +1492,46 @@
         <v>1.29</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="10">
@@ -1553,100 +1553,100 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mjøndalen</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
       </c>
       <c r="K10" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>1.57</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P10" t="n">
         <v>1.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="U10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
         <v>1.25</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11">
@@ -1668,100 +1668,100 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Mjøndalen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hødd</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="L11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.3</v>
       </c>
       <c r="V11" t="n">
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12">
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1.04</v>
@@ -1813,10 +1813,10 @@
         <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P12" t="n">
         <v>1.33</v>
@@ -1898,22 +1898,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Vålerenga</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>HamKam</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.05</v>
@@ -1928,10 +1928,10 @@
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -1940,64 +1940,64 @@
         <v>3.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U13" t="n">
         <v>1.25</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.97</v>
+        <v>1.38</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.98</v>
+        <v>1.56</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AC13" t="n">
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.31</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Norway First Division</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2009,104 +2009,104 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sarpsborg 08</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.88</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
       </c>
       <c r="W14" t="n">
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.58</v>
+        <v>1.76</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.86</v>
+        <v>1.31</v>
       </c>
       <c r="AA14" t="n">
-        <v>3.44</v>
+        <v>3.07</v>
       </c>
       <c r="AB14" t="n">
         <v>1.55</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.61</v>
+        <v>2.03</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.93</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="15">
@@ -2128,40 +2128,40 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Viking</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stabæk</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K15" t="n">
         <v>9</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N15" t="n">
         <v>1.7</v>
       </c>
       <c r="O15" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P15" t="n">
         <v>1.33</v>
@@ -2170,64 +2170,64 @@
         <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="V15" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>2.33</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="AA15" t="n">
-        <v>3.21</v>
+        <v>2.95</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>1.13</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Norway First Division</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2239,104 +2239,104 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bryne</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.3</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="X16" t="n">
         <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.64</v>
+        <v>1.07</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="17">
@@ -2358,40 +2358,40 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Haugesund</t>
+          <t>Stabæk</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.68</v>
+        <v>1.36</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="O17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2400,64 +2400,64 @@
         <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.17</v>
       </c>
-      <c r="U17" t="n">
-        <v>1.25</v>
-      </c>
       <c r="V17" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X17" t="n">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.27</v>
+        <v>3.21</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AI17" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2469,104 +2469,104 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Strømsgodset</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>2.64</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="U18" t="n">
         <v>1.29</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="X18" t="n">
-        <v>0.67</v>
+        <v>2.15</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.83</v>
+        <v>1.36</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.37</v>
+        <v>2.79</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.5</v>
+        <v>2.46</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.3</v>
+        <v>1.74</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.17</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="19">
@@ -2588,22 +2588,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FK Bodo - Glimt</t>
+          <t>Sarpsborg 08</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.72</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2618,10 +2618,10 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2630,64 +2630,64 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="Y19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE19" t="n">
         <v>1.09</v>
       </c>
-      <c r="Z19" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AF19" t="n">
-        <v>1.51</v>
+        <v>1.16</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.83</v>
+        <v>1.31</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.25</v>
+        <v>1.61</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.98</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -2699,104 +2699,104 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Smouha SC</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Haugesund</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S20" t="n">
         <v>2</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="T20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.15</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AB20" t="n">
         <v>1.29</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF20" t="n">
         <v>1.43</v>
       </c>
-      <c r="Z20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AG20" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.41</v>
+        <v>2.14</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.28</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="21">
@@ -2818,22 +2818,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Vålerenga</t>
+          <t>Strømsgodset</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>HamKam</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2848,10 +2848,10 @@
         <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -2860,58 +2860,58 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="U21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V21" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.56</v>
+        <v>0.83</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.94</v>
+        <v>2.37</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.24</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="22">
@@ -2933,28 +2933,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Tromsø</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>FK Bodo - Glimt</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.25</v>
@@ -2963,70 +2963,70 @@
         <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
         <v>2.05</v>
       </c>
       <c r="P22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X22" t="n">
         <v>3</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1</v>
-      </c>
       <c r="Y22" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.61</v>
+        <v>1.99</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.68</v>
+        <v>3.08</v>
       </c>
       <c r="AB22" t="n">
         <v>4</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AH22" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.41</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="23">
@@ -3057,13 +3057,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H23" t="n">
         <v>4.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J23" t="n">
         <v>1.02</v>
@@ -3147,7 +3147,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3159,110 +3159,110 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Örebro</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.3</v>
       </c>
-      <c r="I24" t="n">
-        <v>2.63</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="O24" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.75</v>
-      </c>
       <c r="X24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AG24" t="n">
         <v>1.6</v>
       </c>
-      <c r="Y24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AH24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3274,104 +3274,104 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Örebro</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI25" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>2.65</v>
       </c>
     </row>
     <row r="26">
@@ -3408,7 +3408,7 @@
         <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
         <v>1.12</v>
@@ -3420,13 +3420,13 @@
         <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
         <v>1.63</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
         <v>1.03</v>
@@ -3538,10 +3538,10 @@
         <v>2.97</v>
       </c>
       <c r="N27" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="O27" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
         <v>1.44</v>
@@ -3635,10 +3635,10 @@
         <v>1.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>1.07</v>
@@ -3653,10 +3653,10 @@
         <v>3.25</v>
       </c>
       <c r="N28" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="P28" t="n">
         <v>1.44</v>
@@ -3738,76 +3738,76 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K29" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M29" t="n">
-        <v>2.83</v>
+        <v>3.02</v>
       </c>
       <c r="N29" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P29" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S29" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T29" t="n">
         <v>1.23</v>
       </c>
       <c r="U29" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W29" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -3853,76 +3853,76 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>1.85</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S30" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T30" t="n">
         <v>1.23</v>
       </c>
       <c r="U30" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="V30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="X30" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>3.3</v>
@@ -3998,10 +3998,10 @@
         <v>3.65</v>
       </c>
       <c r="N31" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>1.35</v>
@@ -4040,13 +4040,13 @@
         <v>2.16</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4079,26 +4079,26 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Guaireña</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Boyacá Chicó</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.56</v>
+        <v>0.63</v>
       </c>
       <c r="X32" t="n">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.74</v>
+        <v>1.08</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.98</v>
+        <v>1.68</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mexico Liga MX</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4194,80 +4194,80 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>América</t>
+          <t>Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="N33" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R33" t="n">
         <v>2</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W33" t="n">
-        <v>1.62</v>
+        <v>2.6</v>
       </c>
       <c r="X33" t="n">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="Y33" t="n">
         <v>1.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.89</v>
+        <v>1.43</v>
       </c>
       <c r="AA33" t="n">
-        <v>3.69</v>
+        <v>3.23</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -4297,7 +4297,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mexico Liga MX</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -4305,84 +4305,84 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="N34" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X34" t="n">
         <v>1.67</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X34" t="n">
-        <v>2.08</v>
-      </c>
       <c r="Y34" t="n">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -4428,22 +4428,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Guaireña</t>
+          <t>Olimpia</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.5</v>
+        <v>1.36</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O35" t="n">
-        <v>2.01</v>
+        <v>2.2</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -4485,19 +4485,19 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="X35" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.08</v>
+        <v>1.66</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.76</v>
+        <v>2.99</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Chile Primera B</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4535,84 +4535,84 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Atlético Huila</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X36" t="n">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.47</v>
+        <v>3.01</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -4636,1501 +4636,6 @@
         <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Alianza Petrolera</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>20</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Once Caldas</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>20</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Rionegro Águilas</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Jaguares de Córdoba</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>20</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>20</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Independiente Medellín</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Unión Magdalena</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>20</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Deportivo Pasto</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Envigado</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mexico Ascenso MX</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Morelia</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Tapatío</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Chile Primera B</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>12</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>San Luis</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Deportes Santa Cruz</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W44" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>20</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Atlético Bucaramanga</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>América de Cali</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>20</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Deportes Tolima</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Atlético Nacional</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Chile Primera B</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>12</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Deportes Iquique</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>La Serena</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K47" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Paraguay Division Profesional</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>18</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Olimpia</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>General Caballero JLM</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I48" t="n">
-        <v>7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Chile Primera B</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>12</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Unión San Felipe</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Cobreloa</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X49" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
         <v>0</v>
       </c>
     </row>
